--- a/DieuTraSKS.xlsx
+++ b/DieuTraSKS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20084\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9059A7C8-3156-423A-AF07-AFCB0FFEBAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D28116F-A19C-4DD9-B151-B7AF0F2ADB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{34968D1B-A61F-4A39-A0C9-11E002312932}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
   <si>
     <t>②商サポ試作データ画面基本情報タブの販責会社を変更時のイベント</t>
   </si>
@@ -502,10 +502,6 @@
     <t>gọi file SA490I.xml</t>
   </si>
   <si>
-    <t>định nghĩa SA490, gọi ShisakuTblKanriDataChekck.java</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <r>
       <t>=&gt; ko có n</t>
     </r>
@@ -584,6 +580,10 @@
   </si>
   <si>
     <t>AnalysinSubDisp</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>định nghĩa SA490 = ShisakuTblKanriDataChekck.java</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -699,12 +699,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -712,6 +706,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,12 +756,6 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -770,35 +764,41 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1128,62 +1128,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B3" s="18"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B4" s="18"/>
+      <c r="B4" s="15"/>
       <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B5" s="18"/>
+      <c r="B5" s="15"/>
       <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B6" s="18"/>
+      <c r="B6" s="15"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B7" s="18"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B8" s="18"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B9" s="18"/>
+      <c r="B9" s="15"/>
       <c r="E9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1195,7 +1195,7 @@
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B10" s="18"/>
+      <c r="B10" s="15"/>
       <c r="E10" s="1" t="s">
         <v>22</v>
       </c>
@@ -1207,49 +1207,49 @@
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B11" s="18"/>
+      <c r="B11" s="15"/>
       <c r="D11" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B12" s="18"/>
+      <c r="B12" s="15"/>
       <c r="E12" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B13" s="18"/>
+      <c r="B13" s="15"/>
       <c r="E13" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B14" s="18"/>
+      <c r="B14" s="15"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B16" s="18"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B17" s="18"/>
+      <c r="B17" s="15"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B18" s="18"/>
+      <c r="B18" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
@@ -1259,10 +1259,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC6AC55-7550-4E2A-B2E5-7153377AE648}">
-  <dimension ref="A1:AF82"/>
+  <dimension ref="A1:BP62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="R63" sqref="R63"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="AM34" sqref="AM34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1271,33 +1271,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B4" s="2">
@@ -1358,284 +1358,429 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:68" x14ac:dyDescent="0.4">
       <c r="C17" s="5"/>
       <c r="G17" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:68" x14ac:dyDescent="0.4">
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:68" x14ac:dyDescent="0.4">
       <c r="C19" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:68" x14ac:dyDescent="0.4">
       <c r="C20" s="7"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B21" s="11" t="s">
+    <row r="21" spans="2:68" x14ac:dyDescent="0.4">
+      <c r="B21" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="2:68" x14ac:dyDescent="0.4">
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="C23" s="13" t="s">
+    <row r="23" spans="2:68" x14ac:dyDescent="0.4">
+      <c r="C23" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="C24" s="13" t="s">
+      <c r="D23" s="21"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="20"/>
+    </row>
+    <row r="24" spans="2:68" x14ac:dyDescent="0.4">
+      <c r="C24" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="D25" s="10"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="C26" s="20" t="s">
+      <c r="D24" s="22"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+    </row>
+    <row r="25" spans="2:68" x14ac:dyDescent="0.4">
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="2:68" x14ac:dyDescent="0.4">
+      <c r="C26" s="17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="17"/>
+      <c r="AA26" s="17"/>
+      <c r="AB26" s="17"/>
+      <c r="AC26" s="17"/>
+      <c r="AD26" s="17"/>
+      <c r="AE26" s="17"/>
+    </row>
+    <row r="27" spans="2:68" x14ac:dyDescent="0.4">
       <c r="D27" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="E28" s="21" t="s">
+      <c r="AO27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BL27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="BP27" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="2:68" x14ac:dyDescent="0.4">
+      <c r="E28" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="M28" s="22" t="s">
+      <c r="M28" s="19" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="AO28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BL28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BP28" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="2:68" x14ac:dyDescent="0.4">
       <c r="F29" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.4">
+        <v>57</v>
+      </c>
+      <c r="AO29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BL29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BP29" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="2:68" x14ac:dyDescent="0.4">
       <c r="G30" s="1" t="s">
         <v>36</v>
       </c>
       <c r="M30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BL30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="BP30" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="2:68" x14ac:dyDescent="0.4">
+      <c r="AO32" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="3:41" x14ac:dyDescent="0.4">
+      <c r="AO33" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="3:41" x14ac:dyDescent="0.4">
+      <c r="C36" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
+      <c r="V36" s="17"/>
+      <c r="W36" s="17"/>
+      <c r="X36" s="17"/>
+      <c r="Y36" s="17"/>
+      <c r="Z36" s="17"/>
+      <c r="AA36" s="17"/>
+      <c r="AB36" s="17"/>
+      <c r="AC36" s="17"/>
+      <c r="AD36" s="17"/>
+      <c r="AE36" s="17"/>
+    </row>
+    <row r="37" spans="3:41" x14ac:dyDescent="0.4">
+      <c r="D37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="3:41" x14ac:dyDescent="0.4">
+      <c r="E38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="3:41" x14ac:dyDescent="0.4">
+      <c r="E39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="3:41" x14ac:dyDescent="0.4">
+      <c r="E40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="3:41" x14ac:dyDescent="0.4">
+      <c r="E41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="3:41" x14ac:dyDescent="0.4">
+      <c r="C42" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="3:32" x14ac:dyDescent="0.4">
-      <c r="E34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF34" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="3:32" x14ac:dyDescent="0.4">
-      <c r="E35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF35" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="3:32" x14ac:dyDescent="0.4">
-      <c r="E36" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF36" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="3:32" x14ac:dyDescent="0.4">
-      <c r="E37" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB37" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF37" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="3:32" x14ac:dyDescent="0.4">
-      <c r="E39" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="3:32" x14ac:dyDescent="0.4">
-      <c r="E40" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="3:32" x14ac:dyDescent="0.4">
-      <c r="E41" s="1" t="s">
+    <row r="46" spans="3:41" x14ac:dyDescent="0.4">
+      <c r="C46" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="10"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="10"/>
+      <c r="Y46" s="10"/>
+      <c r="Z46" s="10"/>
+      <c r="AA46" s="10"/>
+      <c r="AB46" s="10"/>
+      <c r="AC46" s="10"/>
+      <c r="AD46" s="10"/>
+      <c r="AE46" s="10"/>
+      <c r="AF46" s="10"/>
+      <c r="AG46" s="10"/>
+    </row>
+    <row r="47" spans="3:41" x14ac:dyDescent="0.4">
+      <c r="C47" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="10"/>
+      <c r="AA47" s="10"/>
+      <c r="AB47" s="10"/>
+      <c r="AC47" s="10"/>
+      <c r="AD47" s="10"/>
+      <c r="AE47" s="10"/>
+      <c r="AF47" s="10"/>
+      <c r="AG47" s="10"/>
+    </row>
+    <row r="48" spans="3:41" x14ac:dyDescent="0.4">
+      <c r="D48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V48" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="5:26" x14ac:dyDescent="0.4">
+      <c r="E49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="W49" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="5:26" x14ac:dyDescent="0.4">
+      <c r="E50" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="X50" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="3:32" x14ac:dyDescent="0.4">
-      <c r="C44" s="20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="3:32" x14ac:dyDescent="0.4">
-      <c r="D45" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="3:32" x14ac:dyDescent="0.4">
-      <c r="E46" s="1" t="s">
+    <row r="51" spans="5:26" x14ac:dyDescent="0.4">
+      <c r="E51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y51" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="5:26" x14ac:dyDescent="0.4">
+      <c r="F52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z52" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="5:26" x14ac:dyDescent="0.4">
+      <c r="F53" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="5:26" x14ac:dyDescent="0.4">
+      <c r="F54" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="5:26" x14ac:dyDescent="0.4">
+      <c r="F55" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="5:26" x14ac:dyDescent="0.4">
+      <c r="F57" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="5:26" x14ac:dyDescent="0.4">
+      <c r="G58" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="5:26" x14ac:dyDescent="0.4">
+      <c r="F60" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M46" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="3:32" x14ac:dyDescent="0.4">
-      <c r="E47" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="3:32" x14ac:dyDescent="0.4">
-      <c r="E48" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="E49" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="C50" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="C55" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="D56" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="V56" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="E57" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="W57" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="E58" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="X58" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="E59" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y59" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="F60" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z60" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="F61" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="F62" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.4">
-      <c r="F63" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="65" spans="6:8" x14ac:dyDescent="0.4">
-      <c r="F65" s="1" t="s">
+    </row>
+    <row r="61" spans="5:26" x14ac:dyDescent="0.4">
+      <c r="G61" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="6:8" x14ac:dyDescent="0.4">
-      <c r="G66" s="1" t="s">
+    <row r="62" spans="5:26" x14ac:dyDescent="0.4">
+      <c r="H62" s="1" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="68" spans="6:8" x14ac:dyDescent="0.4">
-      <c r="F68" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="69" spans="6:8" x14ac:dyDescent="0.4">
-      <c r="G69" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="6:8" x14ac:dyDescent="0.4">
-      <c r="H70" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C82" s="12" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/DieuTraSKS.xlsx
+++ b/DieuTraSKS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20084\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D28116F-A19C-4DD9-B151-B7AF0F2ADB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4678849-0175-44D4-B606-53A2F23EBC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{34968D1B-A61F-4A39-A0C9-11E002312932}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="78">
   <si>
     <t>②商サポ試作データ画面基本情報タブの販責会社を変更時のイベント</t>
   </si>
@@ -464,10 +464,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>định nghĩa SA480</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>TrialDispPanel.java</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -532,66 +528,92 @@
     <t>gọi SA490</t>
   </si>
   <si>
-    <t>CopyData.java</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>DataCtrl.java</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>AnalysisCheck.java</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>AnalysisPanel.java</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t xml:space="preserve">PrototypeListTable.java </t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>AnalysisInputPanel.java</t>
+    <t>TrialMainDisp.java</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>main.java</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>định nghĩa SA490 = ShisakuTblKanriDataChekck.java</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>TrialTblData.java</t>
-  </si>
-  <si>
-    <t>Trial1Table.java</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Trial1Panel.java</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>TrialMainDisp.java</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>TrialTab.java</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>main.java</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>AnalysinSubDisp</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>định nghĩa SA490 = ShisakuTblKanriDataChekck.java</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>hàm CopyShisakuhin()</t>
+  </si>
+  <si>
+    <t>hàm getActionEvent()</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>định nghĩa SA480 = ShisakuTblSearchLogic.java</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>hàm ExecLogic</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>biến APPCONTEXT_NM_LOGIC</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>LogicManager.java</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>hàm callLogic()</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>gọi appContext_Logic.xml</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>gọi ConstVars.java</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ShisakuTblSearchLogic.java</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>appContext_Manager.xml</t>
+  </si>
+  <si>
+    <t>định nghĩa DI_LogicManager = LogicManager</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>RequestContoroler.java</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>hàm mainContorol</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AjaxServlet.java</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>hàm doPost</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>SA480I.xml</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -677,6 +699,14 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -730,7 +760,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -799,6 +829,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1259,10 +1292,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC6AC55-7550-4E2A-B2E5-7153377AE648}">
-  <dimension ref="A1:BP62"/>
+  <dimension ref="A1:BP51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="AM34" sqref="AM34"/>
+      <selection activeCell="AP45" sqref="AP45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1482,7 +1515,7 @@
     </row>
     <row r="27" spans="2:68" x14ac:dyDescent="0.4">
       <c r="D27" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AO27" s="1" t="s">
         <v>38</v>
@@ -1496,7 +1529,7 @@
     </row>
     <row r="28" spans="2:68" x14ac:dyDescent="0.4">
       <c r="E28" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M28" s="19" t="s">
         <v>39</v>
@@ -1513,7 +1546,7 @@
     </row>
     <row r="29" spans="2:68" x14ac:dyDescent="0.4">
       <c r="F29" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AO29" s="1" t="s">
         <v>38</v>
@@ -1530,7 +1563,7 @@
         <v>36</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="AO30" s="1" t="s">
         <v>43</v>
@@ -1544,15 +1577,15 @@
     </row>
     <row r="32" spans="2:68" x14ac:dyDescent="0.4">
       <c r="AO32" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="3:41" x14ac:dyDescent="0.4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="3:47" x14ac:dyDescent="0.4">
       <c r="AO33" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="3:41" x14ac:dyDescent="0.4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="3:47" x14ac:dyDescent="0.4">
       <c r="C36" s="17" t="s">
         <v>20</v>
       </c>
@@ -1585,52 +1618,104 @@
       <c r="AD36" s="17"/>
       <c r="AE36" s="17"/>
     </row>
-    <row r="37" spans="3:41" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:47" x14ac:dyDescent="0.4">
       <c r="D37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="M37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU37" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="3:47" x14ac:dyDescent="0.4">
+      <c r="E38" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="38" spans="3:41" x14ac:dyDescent="0.4">
-      <c r="E38" s="1" t="s">
+      <c r="M38" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="AH38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU38" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="3:47" x14ac:dyDescent="0.4">
+      <c r="E39" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="39" spans="3:41" x14ac:dyDescent="0.4">
-      <c r="E39" s="1" t="s">
+      <c r="M39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU39" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="3:47" x14ac:dyDescent="0.4">
+      <c r="E40" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M39" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="3:41" x14ac:dyDescent="0.4">
-      <c r="E40" s="1" t="s">
+      <c r="M40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU40" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="3:47" x14ac:dyDescent="0.4">
+      <c r="E41" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="M40" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="3:41" x14ac:dyDescent="0.4">
-      <c r="E41" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="M41" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="3:41" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+      <c r="AK41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU41" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="3:47" x14ac:dyDescent="0.4">
       <c r="C42" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="3:41" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+      <c r="AL42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU42" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="3:47" x14ac:dyDescent="0.4">
+      <c r="AM43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU43" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="3:47" x14ac:dyDescent="0.4">
+      <c r="AK44" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="3:47" x14ac:dyDescent="0.4">
       <c r="C46" s="10" t="s">
         <v>28</v>
       </c>
@@ -1665,7 +1750,7 @@
       <c r="AF46" s="10"/>
       <c r="AG46" s="10"/>
     </row>
-    <row r="47" spans="3:41" x14ac:dyDescent="0.4">
+    <row r="47" spans="3:47" x14ac:dyDescent="0.4">
       <c r="C47" s="10" t="s">
         <v>26</v>
       </c>
@@ -1700,87 +1785,34 @@
       <c r="AF47" s="10"/>
       <c r="AG47" s="10"/>
     </row>
-    <row r="48" spans="3:41" x14ac:dyDescent="0.4">
+    <row r="48" spans="3:47" x14ac:dyDescent="0.4">
       <c r="D48" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="V48" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="5:26" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="5:28" x14ac:dyDescent="0.4">
       <c r="E49" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="W49" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="5:26" x14ac:dyDescent="0.4">
-      <c r="E50" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="5:28" x14ac:dyDescent="0.4">
+      <c r="F50" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="L50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB50" s="23"/>
+    </row>
+    <row r="51" spans="5:28" x14ac:dyDescent="0.4">
+      <c r="G51" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="X50" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="5:26" x14ac:dyDescent="0.4">
-      <c r="E51" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y51" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="5:26" x14ac:dyDescent="0.4">
-      <c r="F52" s="1" t="s">
+      <c r="L51" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z52" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="5:26" x14ac:dyDescent="0.4">
-      <c r="F53" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="54" spans="5:26" x14ac:dyDescent="0.4">
-      <c r="F54" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="55" spans="5:26" x14ac:dyDescent="0.4">
-      <c r="F55" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="5:26" x14ac:dyDescent="0.4">
-      <c r="F57" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="58" spans="5:26" x14ac:dyDescent="0.4">
-      <c r="G58" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="60" spans="5:26" x14ac:dyDescent="0.4">
-      <c r="F60" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="61" spans="5:26" x14ac:dyDescent="0.4">
-      <c r="G61" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="62" spans="5:26" x14ac:dyDescent="0.4">
-      <c r="H62" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
